--- a/utl/GETPOSTS.xlsx
+++ b/utl/GETPOSTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\matsuridaiko\utl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E577A36-6F9D-4AF9-AA08-5654984B218E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9474E30-FAEA-42D3-B7AF-3362A49F02CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8BE27985-F6AC-4498-AC53-83059C39808B}"/>
+    <workbookView xWindow="-15780" yWindow="0" windowWidth="15375" windowHeight="7875" xr2:uid="{8BE27985-F6AC-4498-AC53-83059C39808B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="21">
   <si>
     <t>$</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>:</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE5CB764-A602-4894-9DAC-B7E3F85C0F97}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O13" sqref="I2:O13"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="E26" sqref="C15:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,6 +1002,135 @@
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
